--- a/TestTapeGenerator/OutPutTable2.xlsx
+++ b/TestTapeGenerator/OutPutTable2.xlsx
@@ -1,33 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\NSL_Repo\TestTapeGenerator\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nsl\Documents\NSL_Repo\TestTapeGenerator\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8C977DB8-3F93-45C3-A8C6-F52948F82C78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="18696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5796"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -38,7 +28,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -84,838 +74,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-DK"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="37350751"/>
-        <c:axId val="37351167"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="37350751"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="37351167"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="37351167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-DK"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="37350751"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-DK"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>53340</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A80DEC-712C-4C6C-B52D-557CDF3B51E4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1180,21 +338,18 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B256"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="8" max="8" width="55.21875" customWidth="1"/>
-  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1">
-        <v>31.8</v>
+        <v>15.76</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -1202,7 +357,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>30.7</v>
+        <v>15.63</v>
       </c>
       <c r="B2">
         <f>B1+1</f>
@@ -1211,7 +366,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>29.7</v>
+        <v>15.51</v>
       </c>
       <c r="B3">
         <f t="shared" ref="B3:B66" si="0">B2+1</f>
@@ -1220,7 +375,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>28.8</v>
+        <v>15.39</v>
       </c>
       <c r="B4">
         <f t="shared" si="0"/>
@@ -1229,7 +384,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>28</v>
+        <v>15.27</v>
       </c>
       <c r="B5">
         <f t="shared" si="0"/>
@@ -1238,7 +393,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>27.2</v>
+        <v>15.15</v>
       </c>
       <c r="B6">
         <f t="shared" si="0"/>
@@ -1247,7 +402,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>26.6</v>
+        <v>15.040000000000001</v>
       </c>
       <c r="B7">
         <f t="shared" si="0"/>
@@ -1256,7 +411,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>25.9</v>
+        <v>14.93</v>
       </c>
       <c r="B8">
         <f t="shared" si="0"/>
@@ -1265,7 +420,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>25.4</v>
+        <v>14.82</v>
       </c>
       <c r="B9">
         <f t="shared" si="0"/>
@@ -1274,7 +429,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>24.8</v>
+        <v>14.71</v>
       </c>
       <c r="B10">
         <f t="shared" si="0"/>
@@ -1283,7 +438,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>24.3</v>
+        <v>14.6</v>
       </c>
       <c r="B11">
         <f t="shared" si="0"/>
@@ -1292,7 +447,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>23.9</v>
+        <v>14.49</v>
       </c>
       <c r="B12">
         <f t="shared" si="0"/>
@@ -1301,7 +456,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>23.4</v>
+        <v>14.39</v>
       </c>
       <c r="B13">
         <f t="shared" si="0"/>
@@ -1310,7 +465,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>23</v>
+        <v>14.280000000000001</v>
       </c>
       <c r="B14">
         <f t="shared" si="0"/>
@@ -1319,7 +474,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>22.6</v>
+        <v>14.18</v>
       </c>
       <c r="B15">
         <f t="shared" si="0"/>
@@ -1328,7 +483,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>22.2</v>
+        <v>14.08</v>
       </c>
       <c r="B16">
         <f t="shared" si="0"/>
@@ -1337,7 +492,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>21.8</v>
+        <v>13.98</v>
       </c>
       <c r="B17">
         <f t="shared" si="0"/>
@@ -1346,7 +501,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>21.5</v>
+        <v>13.88</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
@@ -1355,7 +510,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>21.2</v>
+        <v>13.780000000000001</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
@@ -1364,7 +519,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>20.8</v>
+        <v>13.69</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
@@ -1373,7 +528,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>20.5</v>
+        <v>13.59</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
@@ -1382,7 +537,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>20.2</v>
+        <v>13.5</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
@@ -1391,7 +546,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>20</v>
+        <v>13.4</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
@@ -1400,7 +555,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>19.7</v>
+        <v>13.31</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
@@ -1409,7 +564,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>19.399999999999999</v>
+        <v>13.22</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
@@ -1418,7 +573,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>19.2</v>
+        <v>13.13</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
@@ -1427,7 +582,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>18.899999999999999</v>
+        <v>13.040000000000001</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
@@ -1436,7 +591,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>18.7</v>
+        <v>12.96</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
@@ -1445,7 +600,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>18.5</v>
+        <v>12.870000000000001</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
@@ -1454,7 +609,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>18.2</v>
+        <v>12.780000000000001</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
@@ -1463,7 +618,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>18</v>
+        <v>12.700000000000001</v>
       </c>
       <c r="B31">
         <f t="shared" si="0"/>
@@ -1472,7 +627,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>17.8</v>
+        <v>12.620000000000001</v>
       </c>
       <c r="B32">
         <f t="shared" si="0"/>
@@ -1481,7 +636,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>17.5</v>
+        <v>12.51</v>
       </c>
       <c r="B33">
         <f t="shared" si="0"/>
@@ -1490,7 +645,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>17.3</v>
+        <v>12.43</v>
       </c>
       <c r="B34">
         <f t="shared" si="0"/>
@@ -1499,7 +654,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>17.100000000000001</v>
+        <v>12.35</v>
       </c>
       <c r="B35">
         <f t="shared" si="0"/>
@@ -1508,7 +663,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>17</v>
+        <v>12.27</v>
       </c>
       <c r="B36">
         <f t="shared" si="0"/>
@@ -1517,7 +672,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>16.8</v>
+        <v>12.19</v>
       </c>
       <c r="B37">
         <f t="shared" si="0"/>
@@ -1526,7 +681,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>16.600000000000001</v>
+        <v>12.11</v>
       </c>
       <c r="B38">
         <f t="shared" si="0"/>
@@ -1535,7 +690,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>16.399999999999999</v>
+        <v>12.030000000000001</v>
       </c>
       <c r="B39">
         <f t="shared" si="0"/>
@@ -1544,7 +699,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>16.2</v>
+        <v>11.96</v>
       </c>
       <c r="B40">
         <f t="shared" si="0"/>
@@ -1553,7 +708,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>16.100000000000001</v>
+        <v>11.88</v>
       </c>
       <c r="B41">
         <f t="shared" si="0"/>
@@ -1562,7 +717,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>15.9</v>
+        <v>11.8</v>
       </c>
       <c r="B42">
         <f t="shared" si="0"/>
@@ -1571,7 +726,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>15.8</v>
+        <v>11.73</v>
       </c>
       <c r="B43">
         <f t="shared" si="0"/>
@@ -1580,7 +735,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>15.6</v>
+        <v>11.65</v>
       </c>
       <c r="B44">
         <f t="shared" si="0"/>
@@ -1589,7 +744,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>15.4</v>
+        <v>11.58</v>
       </c>
       <c r="B45">
         <f t="shared" si="0"/>
@@ -1598,7 +753,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>15.3</v>
+        <v>11.51</v>
       </c>
       <c r="B46">
         <f t="shared" si="0"/>
@@ -1607,7 +762,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>15.1</v>
+        <v>11.43</v>
       </c>
       <c r="B47">
         <f t="shared" si="0"/>
@@ -1616,7 +771,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>15</v>
+        <v>11.36</v>
       </c>
       <c r="B48">
         <f t="shared" si="0"/>
@@ -1625,7 +780,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>14.9</v>
+        <v>11.290000000000001</v>
       </c>
       <c r="B49">
         <f t="shared" si="0"/>
@@ -1634,7 +789,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>14.7</v>
+        <v>11.22</v>
       </c>
       <c r="B50">
         <f t="shared" si="0"/>
@@ -1643,7 +798,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>14.6</v>
+        <v>11.15</v>
       </c>
       <c r="B51">
         <f t="shared" si="0"/>
@@ -1652,7 +807,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>14.4</v>
+        <v>11.07</v>
       </c>
       <c r="B52">
         <f t="shared" si="0"/>
@@ -1661,7 +816,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>14.3</v>
+        <v>11</v>
       </c>
       <c r="B53">
         <f t="shared" si="0"/>
@@ -1670,7 +825,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>14.2</v>
+        <v>10.94</v>
       </c>
       <c r="B54">
         <f t="shared" si="0"/>
@@ -1679,7 +834,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>14</v>
+        <v>11.870000000000001</v>
       </c>
       <c r="B55">
         <f t="shared" si="0"/>
@@ -1688,7 +843,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>13.9</v>
+        <v>10.8</v>
       </c>
       <c r="B56">
         <f t="shared" si="0"/>
@@ -1697,7 +852,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>13.8</v>
+        <v>10.73</v>
       </c>
       <c r="B57">
         <f t="shared" si="0"/>
@@ -1706,7 +861,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>13.7</v>
+        <v>10.67</v>
       </c>
       <c r="B58">
         <f t="shared" si="0"/>
@@ -1715,7 +870,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>13.6</v>
+        <v>10.6</v>
       </c>
       <c r="B59">
         <f t="shared" si="0"/>
@@ -1724,7 +879,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>13.4</v>
+        <v>10.530000000000001</v>
       </c>
       <c r="B60">
         <f t="shared" si="0"/>
@@ -1733,7 +888,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>13.3</v>
+        <v>10.46</v>
       </c>
       <c r="B61">
         <f t="shared" si="0"/>
@@ -1742,7 +897,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>13.2</v>
+        <v>10.4</v>
       </c>
       <c r="B62">
         <f t="shared" si="0"/>
@@ -1751,7 +906,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>13.1</v>
+        <v>10.33</v>
       </c>
       <c r="B63">
         <f t="shared" si="0"/>
@@ -1760,7 +915,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>13</v>
+        <v>10.27</v>
       </c>
       <c r="B64">
         <f t="shared" si="0"/>
@@ -1769,7 +924,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>12.8</v>
+        <v>10.19</v>
       </c>
       <c r="B65">
         <f t="shared" si="0"/>
@@ -1778,7 +933,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>12.7</v>
+        <v>10.130000000000001</v>
       </c>
       <c r="B66">
         <f t="shared" si="0"/>
@@ -1787,7 +942,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>12.6</v>
+        <v>10.07</v>
       </c>
       <c r="B67">
         <f t="shared" ref="B67:B130" si="1">B66+1</f>
@@ -1796,7 +951,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>12.5</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <f t="shared" si="1"/>
@@ -1805,7 +960,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>12.4</v>
+        <v>9.94</v>
       </c>
       <c r="B69">
         <f t="shared" si="1"/>
@@ -1814,7 +969,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>12.3</v>
+        <v>9.8800000000000008</v>
       </c>
       <c r="B70">
         <f t="shared" si="1"/>
@@ -1823,7 +978,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>12.2</v>
+        <v>9.82</v>
       </c>
       <c r="B71">
         <f t="shared" si="1"/>
@@ -1832,7 +987,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>12.1</v>
+        <v>9.75</v>
       </c>
       <c r="B72">
         <f t="shared" si="1"/>
@@ -1841,7 +996,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>12</v>
+        <v>9.69</v>
       </c>
       <c r="B73">
         <f t="shared" si="1"/>
@@ -1850,7 +1005,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>11.9</v>
+        <v>9.6300000000000008</v>
       </c>
       <c r="B74">
         <f t="shared" si="1"/>
@@ -1859,7 +1014,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>11.8</v>
+        <v>9.57</v>
       </c>
       <c r="B75">
         <f t="shared" si="1"/>
@@ -1868,7 +1023,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>11.7</v>
+        <v>9.51</v>
       </c>
       <c r="B76">
         <f t="shared" si="1"/>
@@ -1877,7 +1032,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>11.6</v>
+        <v>9.4500000000000011</v>
       </c>
       <c r="B77">
         <f t="shared" si="1"/>
@@ -1886,7 +1041,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>11.5</v>
+        <v>9.39</v>
       </c>
       <c r="B78">
         <f t="shared" si="1"/>
@@ -1895,7 +1050,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>11.4</v>
+        <v>9.33</v>
       </c>
       <c r="B79">
         <f t="shared" si="1"/>
@@ -1904,7 +1059,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>11.3</v>
+        <v>9.27</v>
       </c>
       <c r="B80">
         <f t="shared" si="1"/>
@@ -1913,7 +1068,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>11.2</v>
+        <v>9.2100000000000009</v>
       </c>
       <c r="B81">
         <f t="shared" si="1"/>
@@ -1922,7 +1077,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>11.2</v>
+        <v>9.15</v>
       </c>
       <c r="B82">
         <f t="shared" si="1"/>
@@ -1931,7 +1086,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>11.1</v>
+        <v>9.1</v>
       </c>
       <c r="B83">
         <f t="shared" si="1"/>
@@ -1940,7 +1095,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>11</v>
+        <v>9.0400000000000009</v>
       </c>
       <c r="B84">
         <f t="shared" si="1"/>
@@ -1949,7 +1104,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10.9</v>
+        <v>8.98</v>
       </c>
       <c r="B85">
         <f t="shared" si="1"/>
@@ -1958,7 +1113,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>10.8</v>
+        <v>8.92</v>
       </c>
       <c r="B86">
         <f t="shared" si="1"/>
@@ -1967,7 +1122,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>10.7</v>
+        <v>8.86</v>
       </c>
       <c r="B87">
         <f t="shared" si="1"/>
@@ -1976,7 +1131,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>10.6</v>
+        <v>8.81</v>
       </c>
       <c r="B88">
         <f t="shared" si="1"/>
@@ -1985,7 +1140,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>10.6</v>
+        <v>8.75</v>
       </c>
       <c r="B89">
         <f t="shared" si="1"/>
@@ -1994,7 +1149,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>10.5</v>
+        <v>8.69</v>
       </c>
       <c r="B90">
         <f t="shared" si="1"/>
@@ -2003,7 +1158,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>10.4</v>
+        <v>8.64</v>
       </c>
       <c r="B91">
         <f t="shared" si="1"/>
@@ -2012,7 +1167,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>10.3</v>
+        <v>8.58</v>
       </c>
       <c r="B92">
         <f t="shared" si="1"/>
@@ -2021,7 +1176,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>10.199999999999999</v>
+        <v>8.5300000000000011</v>
       </c>
       <c r="B93">
         <f t="shared" si="1"/>
@@ -2030,7 +1185,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>10.199999999999999</v>
+        <v>8.4700000000000006</v>
       </c>
       <c r="B94">
         <f t="shared" si="1"/>
@@ -2039,7 +1194,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>10.1</v>
+        <v>8.42</v>
       </c>
       <c r="B95">
         <f t="shared" si="1"/>
@@ -2048,7 +1203,7 @@
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>10</v>
+        <v>8.36</v>
       </c>
       <c r="B96">
         <f t="shared" si="1"/>
@@ -2057,7 +1212,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>9.9</v>
+        <v>8.3000000000000007</v>
       </c>
       <c r="B97">
         <f t="shared" si="1"/>
@@ -2066,7 +1221,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>9.8000000000000007</v>
+        <v>8.24</v>
       </c>
       <c r="B98">
         <f t="shared" si="1"/>
@@ -2075,7 +1230,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>9.6999999999999993</v>
+        <v>8.19</v>
       </c>
       <c r="B99">
         <f t="shared" si="1"/>
@@ -2084,7 +1239,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>9.67</v>
+        <v>8.1300000000000008</v>
       </c>
       <c r="B100">
         <f t="shared" si="1"/>
@@ -2093,7 +1248,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>9.6</v>
+        <v>8.08</v>
       </c>
       <c r="B101">
         <f t="shared" si="1"/>
@@ -2102,7 +1257,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102">
-        <v>9.52</v>
+        <v>8.02</v>
       </c>
       <c r="B102">
         <f t="shared" si="1"/>
@@ -2111,7 +1266,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103">
-        <v>9.44</v>
+        <v>7.9700000000000006</v>
       </c>
       <c r="B103">
         <f t="shared" si="1"/>
@@ -2120,7 +1275,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104">
-        <v>9.3699999999999992</v>
+        <v>7.92</v>
       </c>
       <c r="B104">
         <f t="shared" si="1"/>
@@ -2129,7 +1284,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>9.3000000000000007</v>
+        <v>7.86</v>
       </c>
       <c r="B105">
         <f t="shared" si="1"/>
@@ -2138,7 +1293,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>9.2200000000000006</v>
+        <v>7.8100000000000005</v>
       </c>
       <c r="B106">
         <f t="shared" si="1"/>
@@ -2147,7 +1302,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>9.15</v>
+        <v>7.7600000000000007</v>
       </c>
       <c r="B107">
         <f t="shared" si="1"/>
@@ -2156,7 +1311,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>9.1</v>
+        <v>7.7</v>
       </c>
       <c r="B108">
         <f t="shared" si="1"/>
@@ -2165,7 +1320,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>9</v>
+        <v>7.65</v>
       </c>
       <c r="B109">
         <f t="shared" si="1"/>
@@ -2174,7 +1329,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110">
-        <v>8.93</v>
+        <v>7.6000000000000005</v>
       </c>
       <c r="B110">
         <f t="shared" si="1"/>
@@ -2183,7 +1338,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111">
-        <v>8.86</v>
+        <v>7.54</v>
       </c>
       <c r="B111">
         <f t="shared" si="1"/>
@@ -2192,7 +1347,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112">
-        <v>8.7899999999999991</v>
+        <v>7.49</v>
       </c>
       <c r="B112">
         <f t="shared" si="1"/>
@@ -2201,7 +1356,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A113">
-        <v>8.7200000000000006</v>
+        <v>7.44</v>
       </c>
       <c r="B113">
         <f t="shared" si="1"/>
@@ -2210,7 +1365,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A114">
-        <v>8.65</v>
+        <v>7.3900000000000006</v>
       </c>
       <c r="B114">
         <f t="shared" si="1"/>
@@ -2219,7 +1374,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115">
-        <v>8.58</v>
+        <v>7.33</v>
       </c>
       <c r="B115">
         <f t="shared" si="1"/>
@@ -2228,7 +1383,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116">
-        <v>8.51</v>
+        <v>7.28</v>
       </c>
       <c r="B116">
         <f t="shared" si="1"/>
@@ -2237,7 +1392,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117">
-        <v>8.44</v>
+        <v>7.23</v>
       </c>
       <c r="B117">
         <f t="shared" si="1"/>
@@ -2246,7 +1401,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118">
-        <v>8.3699999999999992</v>
+        <v>7.1800000000000006</v>
       </c>
       <c r="B118">
         <f t="shared" si="1"/>
@@ -2255,7 +1410,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119">
-        <v>8.3000000000000007</v>
+        <v>7.13</v>
       </c>
       <c r="B119">
         <f t="shared" si="1"/>
@@ -2264,7 +1419,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120">
-        <v>8.24</v>
+        <v>7.08</v>
       </c>
       <c r="B120">
         <f t="shared" si="1"/>
@@ -2273,7 +1428,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121">
-        <v>8.17</v>
+        <v>7.0200000000000005</v>
       </c>
       <c r="B121">
         <f t="shared" si="1"/>
@@ -2282,7 +1437,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122">
-        <v>8.1</v>
+        <v>6.9700000000000006</v>
       </c>
       <c r="B122">
         <f t="shared" si="1"/>
@@ -2291,7 +1446,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123">
-        <v>8.0399999999999991</v>
+        <v>6.92</v>
       </c>
       <c r="B123">
         <f t="shared" si="1"/>
@@ -2300,7 +1455,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124">
-        <v>7.97</v>
+        <v>6.87</v>
       </c>
       <c r="B124">
         <f t="shared" si="1"/>
@@ -2309,7 +1464,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125">
-        <v>7.9</v>
+        <v>6.82</v>
       </c>
       <c r="B125">
         <f t="shared" si="1"/>
@@ -2318,7 +1473,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126">
-        <v>7.84</v>
+        <v>6.7700000000000005</v>
       </c>
       <c r="B126">
         <f t="shared" si="1"/>
@@ -2327,7 +1482,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127">
-        <v>7.77</v>
+        <v>6.7200000000000006</v>
       </c>
       <c r="B127">
         <f t="shared" si="1"/>
@@ -2336,7 +1491,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128">
-        <v>7.71</v>
+        <v>6.67</v>
       </c>
       <c r="B128">
         <f t="shared" si="1"/>
@@ -2345,7 +1500,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129">
-        <v>7.63</v>
+        <v>6.61</v>
       </c>
       <c r="B129">
         <f t="shared" si="1"/>
@@ -2354,7 +1509,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130">
-        <v>7.57</v>
+        <v>6.5600000000000005</v>
       </c>
       <c r="B130">
         <f t="shared" si="1"/>
@@ -2363,7 +1518,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131">
-        <v>7.5</v>
+        <v>6.5100000000000007</v>
       </c>
       <c r="B131">
         <f t="shared" ref="B131:B194" si="2">B130+1</f>
@@ -2372,7 +1527,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A132">
-        <v>7.44</v>
+        <v>6.46</v>
       </c>
       <c r="B132">
         <f t="shared" si="2"/>
@@ -2381,7 +1536,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A133">
-        <v>7.38</v>
+        <v>6.41</v>
       </c>
       <c r="B133">
         <f t="shared" si="2"/>
@@ -2390,7 +1545,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134">
-        <v>7.31</v>
+        <v>6.36</v>
       </c>
       <c r="B134">
         <f t="shared" si="2"/>
@@ -2399,7 +1554,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135">
-        <v>7.25</v>
+        <v>6.3100000000000005</v>
       </c>
       <c r="B135">
         <f t="shared" si="2"/>
@@ -2408,7 +1563,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136">
-        <v>7.19</v>
+        <v>6.2600000000000007</v>
       </c>
       <c r="B136">
         <f t="shared" si="2"/>
@@ -2417,7 +1572,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137">
-        <v>7.13</v>
+        <v>6.21</v>
       </c>
       <c r="B137">
         <f t="shared" si="2"/>
@@ -2426,7 +1581,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138">
-        <v>7.06</v>
+        <v>6.16</v>
       </c>
       <c r="B138">
         <f t="shared" si="2"/>
@@ -2435,7 +1590,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139">
-        <v>7</v>
+        <v>6.11</v>
       </c>
       <c r="B139">
         <f t="shared" si="2"/>
@@ -2444,7 +1599,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140">
-        <v>6.94</v>
+        <v>6.0600000000000005</v>
       </c>
       <c r="B140">
         <f t="shared" si="2"/>
@@ -2453,7 +1608,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141">
-        <v>6.89</v>
+        <v>6.0100000000000007</v>
       </c>
       <c r="B141">
         <f t="shared" si="2"/>
@@ -2462,7 +1617,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A142">
-        <v>6.82</v>
+        <v>5.96</v>
       </c>
       <c r="B142">
         <f t="shared" si="2"/>
@@ -2471,7 +1626,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143">
-        <v>6.75</v>
+        <v>5.91</v>
       </c>
       <c r="B143">
         <f t="shared" si="2"/>
@@ -2480,7 +1635,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144">
-        <v>6.69</v>
+        <v>5.86</v>
       </c>
       <c r="B144">
         <f t="shared" si="2"/>
@@ -2489,7 +1644,7 @@
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145">
-        <v>6.63</v>
+        <v>5.8100000000000005</v>
       </c>
       <c r="B145">
         <f t="shared" si="2"/>
@@ -2498,7 +1653,7 @@
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146">
-        <v>6.57</v>
+        <v>5.7600000000000007</v>
       </c>
       <c r="B146">
         <f t="shared" si="2"/>
@@ -2507,7 +1662,7 @@
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A147">
-        <v>6.51</v>
+        <v>5.71</v>
       </c>
       <c r="B147">
         <f t="shared" si="2"/>
@@ -2516,7 +1671,7 @@
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A148">
-        <v>6.45</v>
+        <v>5.66</v>
       </c>
       <c r="B148">
         <f t="shared" si="2"/>
@@ -2525,7 +1680,7 @@
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149">
-        <v>6.39</v>
+        <v>5.61</v>
       </c>
       <c r="B149">
         <f t="shared" si="2"/>
@@ -2534,7 +1689,7 @@
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150">
-        <v>6.33</v>
+        <v>5.5600000000000005</v>
       </c>
       <c r="B150">
         <f t="shared" si="2"/>
@@ -2543,7 +1698,7 @@
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151">
-        <v>6.27</v>
+        <v>5.5100000000000007</v>
       </c>
       <c r="B151">
         <f t="shared" si="2"/>
@@ -2552,7 +1707,7 @@
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152">
-        <v>6.21</v>
+        <v>5.46</v>
       </c>
       <c r="B152">
         <f t="shared" si="2"/>
@@ -2561,7 +1716,7 @@
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153">
-        <v>6.15</v>
+        <v>5.41</v>
       </c>
       <c r="B153">
         <f t="shared" si="2"/>
@@ -2570,7 +1725,7 @@
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154">
-        <v>6.09</v>
+        <v>5.37</v>
       </c>
       <c r="B154">
         <f t="shared" si="2"/>
@@ -2579,7 +1734,7 @@
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155">
-        <v>6.03</v>
+        <v>5.32</v>
       </c>
       <c r="B155">
         <f t="shared" si="2"/>
@@ -2588,7 +1743,7 @@
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A156">
-        <v>5.97</v>
+        <v>5.2700000000000005</v>
       </c>
       <c r="B156">
         <f t="shared" si="2"/>
@@ -2597,7 +1752,7 @@
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157">
-        <v>5.91</v>
+        <v>5.2200000000000006</v>
       </c>
       <c r="B157">
         <f t="shared" si="2"/>
@@ -2606,7 +1761,7 @@
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158">
-        <v>5.85</v>
+        <v>5.17</v>
       </c>
       <c r="B158">
         <f t="shared" si="2"/>
@@ -2615,7 +1770,7 @@
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159">
-        <v>5.79</v>
+        <v>5.12</v>
       </c>
       <c r="B159">
         <f t="shared" si="2"/>
@@ -2624,7 +1779,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160">
-        <v>5.73</v>
+        <v>5.07</v>
       </c>
       <c r="B160">
         <f t="shared" si="2"/>
@@ -2633,7 +1788,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161">
-        <v>5.66</v>
+        <v>5.0100000000000007</v>
       </c>
       <c r="B161">
         <f t="shared" si="2"/>
@@ -2642,7 +1797,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162">
-        <v>5.6</v>
+        <v>4.96</v>
       </c>
       <c r="B162">
         <f t="shared" si="2"/>
@@ -2651,7 +1806,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163">
-        <v>5.54</v>
+        <v>4.91</v>
       </c>
       <c r="B163">
         <f t="shared" si="2"/>
@@ -2660,7 +1815,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164">
-        <v>5.48</v>
+        <v>4.8600000000000003</v>
       </c>
       <c r="B164">
         <f t="shared" si="2"/>
@@ -2669,7 +1824,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165">
-        <v>5.43</v>
+        <v>4.8100000000000005</v>
       </c>
       <c r="B165">
         <f t="shared" si="2"/>
@@ -2678,7 +1833,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A166">
-        <v>5.37</v>
+        <v>4.7600000000000007</v>
       </c>
       <c r="B166">
         <f t="shared" si="2"/>
@@ -2687,7 +1842,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A167">
-        <v>5.31</v>
+        <v>4.7200000000000006</v>
       </c>
       <c r="B167">
         <f t="shared" si="2"/>
@@ -2696,7 +1851,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A168">
-        <v>5.25</v>
+        <v>4.67</v>
       </c>
       <c r="B168">
         <f t="shared" si="2"/>
@@ -2705,7 +1860,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169">
-        <v>5.19</v>
+        <v>4.63</v>
       </c>
       <c r="B169">
         <f t="shared" si="2"/>
@@ -2714,7 +1869,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170">
-        <v>5.13</v>
+        <v>4.57</v>
       </c>
       <c r="B170">
         <f t="shared" si="2"/>
@@ -2723,7 +1878,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171">
-        <v>5.08</v>
+        <v>4.5200000000000005</v>
       </c>
       <c r="B171">
         <f t="shared" si="2"/>
@@ -2732,7 +1887,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172">
-        <v>5.0199999999999996</v>
+        <v>4.4700000000000006</v>
       </c>
       <c r="B172">
         <f t="shared" si="2"/>
@@ -2741,7 +1896,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173">
-        <v>4.96</v>
+        <v>4.42</v>
       </c>
       <c r="B173">
         <f t="shared" si="2"/>
@@ -2750,7 +1905,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174">
-        <v>4.9000000000000004</v>
+        <v>4.37</v>
       </c>
       <c r="B174">
         <f t="shared" si="2"/>
@@ -2759,7 +1914,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175">
-        <v>4.8499999999999996</v>
+        <v>4.32</v>
       </c>
       <c r="B175">
         <f t="shared" si="2"/>
@@ -2768,7 +1923,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A176">
-        <v>4.79</v>
+        <v>4.2700000000000005</v>
       </c>
       <c r="B176">
         <f t="shared" si="2"/>
@@ -2777,7 +1932,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177">
-        <v>4.7300000000000004</v>
+        <v>4.2200000000000006</v>
       </c>
       <c r="B177">
         <f t="shared" si="2"/>
@@ -2786,7 +1941,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178">
-        <v>4.67</v>
+        <v>4.17</v>
       </c>
       <c r="B178">
         <f t="shared" si="2"/>
@@ -2795,7 +1950,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179">
-        <v>4.6100000000000003</v>
+        <v>4.12</v>
       </c>
       <c r="B179">
         <f t="shared" si="2"/>
@@ -2804,7 +1959,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180">
-        <v>4.5599999999999996</v>
+        <v>4.07</v>
       </c>
       <c r="B180">
         <f t="shared" si="2"/>
@@ -2813,7 +1968,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181">
-        <v>4.5</v>
+        <v>4.0200000000000005</v>
       </c>
       <c r="B181">
         <f t="shared" si="2"/>
@@ -2822,7 +1977,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A182">
-        <v>4.4400000000000004</v>
+        <v>3.9699999999999998</v>
       </c>
       <c r="B182">
         <f t="shared" si="2"/>
@@ -2831,7 +1986,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A183">
-        <v>4.38</v>
+        <v>3.92</v>
       </c>
       <c r="B183">
         <f t="shared" si="2"/>
@@ -2840,7 +1995,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184">
-        <v>4.33</v>
+        <v>3.8699999999999997</v>
       </c>
       <c r="B184">
         <f t="shared" si="2"/>
@@ -2849,7 +2004,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185">
-        <v>4.2699999999999996</v>
+        <v>3.82</v>
       </c>
       <c r="B185">
         <f t="shared" si="2"/>
@@ -2858,7 +2013,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186">
-        <v>4.21</v>
+        <v>3.77</v>
       </c>
       <c r="B186">
         <f t="shared" si="2"/>
@@ -2867,7 +2022,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187">
-        <v>4.1500000000000004</v>
+        <v>3.7199999999999998</v>
       </c>
       <c r="B187">
         <f t="shared" si="2"/>
@@ -2876,7 +2031,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188">
-        <v>4.0999999999999996</v>
+        <v>3.67</v>
       </c>
       <c r="B188">
         <f t="shared" si="2"/>
@@ -2885,7 +2040,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189">
-        <v>4.04</v>
+        <v>3.6199999999999997</v>
       </c>
       <c r="B189">
         <f t="shared" si="2"/>
@@ -2894,7 +2049,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190">
-        <v>4</v>
+        <v>3.57</v>
       </c>
       <c r="B190">
         <f t="shared" si="2"/>
@@ -2903,7 +2058,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191">
-        <v>3.92</v>
+        <v>3.52</v>
       </c>
       <c r="B191">
         <f t="shared" si="2"/>
@@ -2912,7 +2067,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192">
-        <v>3.87</v>
+        <v>3.4699999999999998</v>
       </c>
       <c r="B192">
         <f t="shared" si="2"/>
@@ -2921,7 +2076,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193">
-        <v>3.8</v>
+        <v>3.4099999999999997</v>
       </c>
       <c r="B193">
         <f t="shared" si="2"/>
@@ -2930,7 +2085,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A194">
-        <v>3.74</v>
+        <v>3.36</v>
       </c>
       <c r="B194">
         <f t="shared" si="2"/>
@@ -2939,7 +2094,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A195">
-        <v>3.68</v>
+        <v>3.31</v>
       </c>
       <c r="B195">
         <f t="shared" ref="B195:B253" si="3">B194+1</f>
@@ -2948,7 +2103,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196">
-        <v>3.62</v>
+        <v>3.26</v>
       </c>
       <c r="B196">
         <f t="shared" si="3"/>
@@ -2957,7 +2112,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197">
-        <v>3.57</v>
+        <v>3.21</v>
       </c>
       <c r="B197">
         <f t="shared" si="3"/>
@@ -2966,7 +2121,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198">
-        <v>3.51</v>
+        <v>3.1599999999999997</v>
       </c>
       <c r="B198">
         <f t="shared" si="3"/>
@@ -2975,7 +2130,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199">
-        <v>3.45</v>
+        <v>3.11</v>
       </c>
       <c r="B199">
         <f t="shared" si="3"/>
@@ -2984,7 +2139,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200">
-        <v>3.39</v>
+        <v>3.06</v>
       </c>
       <c r="B200">
         <f t="shared" si="3"/>
@@ -2993,7 +2148,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201">
-        <v>3.34</v>
+        <v>3.01</v>
       </c>
       <c r="B201">
         <f t="shared" si="3"/>
@@ -3002,7 +2157,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202">
-        <v>3.28</v>
+        <v>2.96</v>
       </c>
       <c r="B202">
         <f t="shared" si="3"/>
@@ -3011,7 +2166,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203">
-        <v>3.22</v>
+        <v>2.9099999999999997</v>
       </c>
       <c r="B203">
         <f t="shared" si="3"/>
@@ -3020,7 +2175,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204">
-        <v>3.16</v>
+        <v>2.8499999999999996</v>
       </c>
       <c r="B204">
         <f t="shared" si="3"/>
@@ -3029,7 +2184,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205">
-        <v>3.1</v>
+        <v>2.8</v>
       </c>
       <c r="B205">
         <f t="shared" si="3"/>
@@ -3038,7 +2193,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206">
-        <v>3.05</v>
+        <v>2.75</v>
       </c>
       <c r="B206">
         <f t="shared" si="3"/>
@@ -3047,7 +2202,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207">
-        <v>3</v>
+        <v>2.6999999999999997</v>
       </c>
       <c r="B207">
         <f t="shared" si="3"/>
@@ -3056,7 +2211,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208">
-        <v>2.93</v>
+        <v>2.65</v>
       </c>
       <c r="B208">
         <f t="shared" si="3"/>
@@ -3065,7 +2220,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209">
-        <v>2.87</v>
+        <v>2.5999999999999996</v>
       </c>
       <c r="B209">
         <f t="shared" si="3"/>
@@ -3074,7 +2229,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210">
-        <v>2.81</v>
+        <v>2.54</v>
       </c>
       <c r="B210">
         <f t="shared" si="3"/>
@@ -3083,7 +2238,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211">
-        <v>2.76</v>
+        <v>2.4899999999999998</v>
       </c>
       <c r="B211">
         <f t="shared" si="3"/>
@@ -3092,7 +2247,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212">
-        <v>2.7</v>
+        <v>2.44</v>
       </c>
       <c r="B212">
         <f t="shared" si="3"/>
@@ -3101,7 +2256,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213">
-        <v>2.64</v>
+        <v>2.3899999999999997</v>
       </c>
       <c r="B213">
         <f t="shared" si="3"/>
@@ -3110,7 +2265,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214">
-        <v>2.58</v>
+        <v>2.34</v>
       </c>
       <c r="B214">
         <f t="shared" si="3"/>
@@ -3119,7 +2274,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215">
-        <v>2.52</v>
+        <v>2.2799999999999998</v>
       </c>
       <c r="B215">
         <f t="shared" si="3"/>
@@ -3128,7 +2283,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A216">
-        <v>2.46</v>
+        <v>2.23</v>
       </c>
       <c r="B216">
         <f t="shared" si="3"/>
@@ -3137,7 +2292,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217">
-        <v>2.4</v>
+        <v>2.1799999999999997</v>
       </c>
       <c r="B217">
         <f t="shared" si="3"/>
@@ -3146,7 +2301,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218">
-        <v>2.35</v>
+        <v>2.13</v>
       </c>
       <c r="B218">
         <f t="shared" si="3"/>
@@ -3155,7 +2310,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219">
-        <v>2.29</v>
+        <v>2.0699999999999998</v>
       </c>
       <c r="B219">
         <f t="shared" si="3"/>
@@ -3164,7 +2319,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220">
-        <v>2.23</v>
+        <v>2.02</v>
       </c>
       <c r="B220">
         <f t="shared" si="3"/>
@@ -3173,7 +2328,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A221">
-        <v>2.17</v>
+        <v>1.97</v>
       </c>
       <c r="B221">
         <f t="shared" si="3"/>
@@ -3182,7 +2337,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A222">
-        <v>2.11</v>
+        <v>1.9100000000000001</v>
       </c>
       <c r="B222">
         <f t="shared" si="3"/>
@@ -3191,7 +2346,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A223">
-        <v>2.0499999999999998</v>
+        <v>1.86</v>
       </c>
       <c r="B223">
         <f t="shared" si="3"/>
@@ -3200,7 +2355,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="B224">
         <f t="shared" si="3"/>
@@ -3209,7 +2364,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225">
-        <v>1.92</v>
+        <v>1.74</v>
       </c>
       <c r="B225">
         <f t="shared" si="3"/>
@@ -3218,7 +2373,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A226">
-        <v>1.86</v>
+        <v>1.6900000000000002</v>
       </c>
       <c r="B226">
         <f t="shared" si="3"/>
@@ -3227,7 +2382,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A227">
-        <v>1.8</v>
+        <v>1.6400000000000001</v>
       </c>
       <c r="B227">
         <f t="shared" si="3"/>
@@ -3236,7 +2391,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A228">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="B228">
         <f t="shared" si="3"/>
@@ -3245,7 +2400,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A229">
-        <v>1.68</v>
+        <v>1.53</v>
       </c>
       <c r="B229">
         <f t="shared" si="3"/>
@@ -3254,7 +2409,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A230">
-        <v>1.62</v>
+        <v>1.47</v>
       </c>
       <c r="B230">
         <f t="shared" si="3"/>
@@ -3263,7 +2418,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A231">
-        <v>1.56</v>
+        <v>1.4200000000000002</v>
       </c>
       <c r="B231">
         <f t="shared" si="3"/>
@@ -3272,7 +2427,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232">
-        <v>1.5</v>
+        <v>1.37</v>
       </c>
       <c r="B232">
         <f t="shared" si="3"/>
@@ -3281,7 +2436,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233">
-        <v>1.44</v>
+        <v>1.31</v>
       </c>
       <c r="B233">
         <f t="shared" si="3"/>
@@ -3290,7 +2445,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A234">
-        <v>1.38</v>
+        <v>1.26</v>
       </c>
       <c r="B234">
         <f t="shared" si="3"/>
@@ -3299,7 +2454,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A235">
-        <v>1.32</v>
+        <v>1.2</v>
       </c>
       <c r="B235">
         <f t="shared" si="3"/>
@@ -3308,7 +2463,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A236">
-        <v>1.26</v>
+        <v>1.1500000000000001</v>
       </c>
       <c r="B236">
         <f t="shared" si="3"/>
@@ -3317,7 +2472,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237">
-        <v>1.2</v>
+        <v>1.0900000000000001</v>
       </c>
       <c r="B237">
         <f t="shared" si="3"/>
@@ -3326,7 +2481,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A238">
-        <v>1.1299999999999999</v>
+        <v>1.03</v>
       </c>
       <c r="B238">
         <f t="shared" si="3"/>
@@ -3335,7 +2490,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A239">
-        <v>1.07</v>
+        <v>0.98</v>
       </c>
       <c r="B239">
         <f t="shared" si="3"/>
@@ -3344,7 +2499,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A240">
-        <v>1.01</v>
+        <v>0.91999999999999993</v>
       </c>
       <c r="B240">
         <f t="shared" si="3"/>
@@ -3353,7 +2508,7 @@
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A241">
-        <v>0.95</v>
+        <v>0.8600000000000001</v>
       </c>
       <c r="B241">
         <f t="shared" si="3"/>
@@ -3362,7 +2517,7 @@
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A242">
-        <v>0.86</v>
+        <v>0.81</v>
       </c>
       <c r="B242">
         <f t="shared" si="3"/>
@@ -3371,7 +2526,7 @@
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A243">
-        <v>0.82</v>
+        <v>0.75</v>
       </c>
       <c r="B243">
         <f t="shared" si="3"/>
@@ -3380,7 +2535,7 @@
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A244">
-        <v>0.76</v>
+        <v>0.69</v>
       </c>
       <c r="B244">
         <f t="shared" si="3"/>
@@ -3389,7 +2544,7 @@
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A245">
-        <v>0.7</v>
+        <v>0.6399999999999999</v>
       </c>
       <c r="B245">
         <f t="shared" si="3"/>
@@ -3398,7 +2553,7 @@
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A246">
-        <v>0.64</v>
+        <v>0.58000000000000007</v>
       </c>
       <c r="B246">
         <f t="shared" si="3"/>
@@ -3407,7 +2562,7 @@
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A247">
-        <v>0.56999999999999995</v>
+        <v>0.62000000000000011</v>
       </c>
       <c r="B247">
         <f t="shared" si="3"/>
@@ -3416,7 +2571,7 @@
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A248">
-        <v>0.51</v>
+        <v>0.47000000000000003</v>
       </c>
       <c r="B248">
         <f t="shared" si="3"/>
@@ -3425,7 +2580,7 @@
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A249">
-        <v>0.45</v>
+        <v>0.41000000000000003</v>
       </c>
       <c r="B249">
         <f t="shared" si="3"/>
@@ -3434,7 +2589,7 @@
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A250">
-        <v>0.38</v>
+        <v>0.35000000000000003</v>
       </c>
       <c r="B250">
         <f t="shared" si="3"/>
@@ -3443,7 +2598,7 @@
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A251">
-        <v>0.32</v>
+        <v>0.29000000000000004</v>
       </c>
       <c r="B251">
         <f t="shared" si="3"/>
@@ -3452,7 +2607,7 @@
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A252">
-        <v>0.26</v>
+        <v>0.24000000000000002</v>
       </c>
       <c r="B252">
         <f t="shared" si="3"/>
@@ -3461,7 +2616,7 @@
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253">
-        <v>0.19</v>
+        <v>0.18</v>
       </c>
       <c r="B253">
         <f t="shared" si="3"/>
@@ -3470,7 +2625,7 @@
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A254">
-        <v>0.13</v>
+        <v>0.12000000000000001</v>
       </c>
       <c r="B254">
         <f>B253+1</f>
@@ -3479,7 +2634,7 @@
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A255">
-        <v>0.06</v>
+        <v>6.0000000000000005E-2</v>
       </c>
       <c r="B255">
         <f t="shared" ref="B255:B256" si="4">B254+1</f>
@@ -3497,11 +2652,16 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010049E0C0293DA5AD44849BC876AD5AF648" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e1a84df89ccca5d01270a8b0f41a9797">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="c1405518-80bc-452a-90a2-b07fb200d20f" xmlns:ns4="081543ba-c09e-4425-a0e4-e350d6d2f6f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="deb7ea81faa3dd64d1b89b6d6ea7d344" ns3:_="" ns4:_="">
     <xsd:import namespace="c1405518-80bc-452a-90a2-b07fb200d20f"/>
@@ -3724,7 +2884,7 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -3733,13 +2893,24 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30278CE3-BF64-4564-9A8A-E119A2F18C3D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="c1405518-80bc-452a-90a2-b07fb200d20f"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="081543ba-c09e-4425-a0e4-e350d6d2f6f9"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{17EEB83A-48C4-41F2-BD42-6BD3B80B186C}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -3758,19 +2929,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39A5CACC-80FF-4A22-A1BD-1ABF228E3266}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{30278CE3-BF64-4564-9A8A-E119A2F18C3D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>